--- a/cbrunner/Parameters/GrowthCurvesTIPSY_Parameters_Template.xlsx
+++ b/cbrunner/Parameters/GrowthCurvesTIPSY_Parameters_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101A988-E0C9-471B-9592-77F1B1C583C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4AFDD-F82D-40B0-8A25-D2BE0F9F2118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{9F176F81-F172-4535-AC93-725DABA6FE3C}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9F176F81-F172-4535-AC93-725DABA6FE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -613,50 +615,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D18B46-C972-4889-944B-936AF7FDB1E8}">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
     </row>
-    <row r="3" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
     </row>
-    <row r="4" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
     </row>
-    <row r="5" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
     </row>
-    <row r="6" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="BB6" s="6"/>
       <c r="BC6" s="6"/>
     </row>
-    <row r="7" spans="1:55" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1658,219 +1658,6 @@
       </c>
       <c r="BC7" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:BA8" si="2">B8+1</f>
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="AZ8">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="BA8">
-        <f t="shared" si="2"/>
-        <v>53</v>
       </c>
     </row>
   </sheetData>
